--- a/MSG/ttp.xlsx
+++ b/MSG/ttp.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeljiv\Desktop\Vidoje\MSG\TTP Tasks\TTP 5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\git\repository\MSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD1948A-4EB0-4EE5-A841-ED85C56E4EDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="2964" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="19">
   <si>
     <t>TRIP_ID</t>
   </si>
@@ -62,18 +68,45 @@
   <si>
     <t>TS</t>
   </si>
+  <si>
+    <t>test_driver2</t>
+  </si>
+  <si>
+    <t>trip04</t>
+  </si>
+  <si>
+    <t>trip05</t>
+  </si>
+  <si>
+    <t>trip06</t>
+  </si>
+  <si>
+    <t>trip07</t>
+  </si>
+  <si>
+    <t>trip08</t>
+  </si>
+  <si>
+    <t>trip09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +135,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,21 +415,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -424,7 +457,7 @@
         <v>43133.606235648149</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -438,7 +471,7 @@
         <v>43134.646662500003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -452,25 +485,152 @@
         <v>43135.694895833331</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43135.694444444445</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43135.694895833331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43135.694444444445</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43135.694895833331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43135.694444444445</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43135.694895833331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43135.694444444445</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43135.694895833331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43135.694444444445</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43135.694895833331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43135.694444444445</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43135.694895833331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43135.694444444445</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43135.694895833331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43135.694444444445</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43135.694895833331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43135.694444444445</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43135.694895833331</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -487,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -504,7 +664,7 @@
         <v>43133.605682870373</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -522,7 +682,7 @@
         <v>43133.605694444443</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -540,7 +700,7 @@
         <v>43133.605705902781</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -558,7 +718,7 @@
         <v>43133.605717418985</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -576,7 +736,7 @@
         <v>43133.605728935188</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -594,7 +754,7 @@
         <v>43133.605740451392</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -612,7 +772,7 @@
         <v>43133.605751967596</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -630,7 +790,7 @@
         <v>43133.6057634838</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -648,7 +808,7 @@
         <v>43133.605775000004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -666,7 +826,7 @@
         <v>43133.605787037035</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -684,7 +844,7 @@
         <v>43133.605798611112</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -702,7 +862,7 @@
         <v>43133.605809548608</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -720,7 +880,7 @@
         <v>43133.605821064812</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -738,7 +898,7 @@
         <v>43133.605832581015</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -756,7 +916,7 @@
         <v>43133.605844097219</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -774,7 +934,7 @@
         <v>43133.605855613423</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -792,7 +952,7 @@
         <v>43133.605867129627</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -810,7 +970,7 @@
         <v>43133.605878645831</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -828,7 +988,7 @@
         <v>43133.605890162034</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -846,7 +1006,7 @@
         <v>43133.605901678238</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -864,7 +1024,7 @@
         <v>43133.605913194442</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -882,7 +1042,7 @@
         <v>43133.605924710646</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -900,7 +1060,7 @@
         <v>43133.60593622685</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -918,7 +1078,7 @@
         <v>43133.605947743054</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -936,7 +1096,7 @@
         <v>43133.605959259257</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -954,7 +1114,7 @@
         <v>43133.605970775461</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -972,7 +1132,7 @@
         <v>43133.605982291665</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -990,7 +1150,7 @@
         <v>43133.605993807869</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1008,7 +1168,7 @@
         <v>43133.606005324073</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1026,7 +1186,7 @@
         <v>43133.606016840276</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1044,7 +1204,7 @@
         <v>43133.60602835648</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1062,7 +1222,7 @@
         <v>43133.606039872684</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1080,7 +1240,7 @@
         <v>43133.606051388888</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1098,7 +1258,7 @@
         <v>43133.606062905092</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1116,7 +1276,7 @@
         <v>43133.606074421295</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1134,7 +1294,7 @@
         <v>43133.606085937499</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1152,7 +1312,7 @@
         <v>43133.606097453703</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1170,7 +1330,7 @@
         <v>43133.606108969907</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1188,7 +1348,7 @@
         <v>43133.606120486111</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1206,7 +1366,7 @@
         <v>43133.606132002315</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1224,7 +1384,7 @@
         <v>43133.606143518518</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1242,7 +1402,7 @@
         <v>43133.606155034722</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1260,7 +1420,7 @@
         <v>43133.606166550926</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1278,7 +1438,7 @@
         <v>43133.60617806713</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1296,7 +1456,7 @@
         <v>43133.606189583334</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1314,7 +1474,7 @@
         <v>43133.606201099537</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1332,7 +1492,7 @@
         <v>43133.606212615741</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1350,7 +1510,7 @@
         <v>43133.606224131945</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1368,7 +1528,7 @@
         <v>43133.606235648149</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1386,7 +1546,7 @@
         <v>43134.645833333336</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1404,7 +1564,7 @@
         <v>43134.645844907405</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1422,7 +1582,7 @@
         <v>43134.645856365743</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1440,7 +1600,7 @@
         <v>43134.645867881947</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1458,7 +1618,7 @@
         <v>43134.645879398151</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1477,7 +1637,7 @@
         <v>43134.645890914355</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1486,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" ref="C57:D79" si="1">C56-1</f>
+        <f t="shared" ref="C57:C79" si="1">C56-1</f>
         <v>38</v>
       </c>
       <c r="D57" s="1">
@@ -1496,7 +1656,7 @@
         <v>43134.645902430559</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1515,7 +1675,7 @@
         <v>43134.645913946762</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1534,7 +1694,7 @@
         <v>43134.645925462966</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1553,7 +1713,7 @@
         <v>43134.64593697917</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1572,7 +1732,7 @@
         <v>43134.645948495374</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1591,7 +1751,7 @@
         <v>43134.645960011578</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1610,7 +1770,7 @@
         <v>43134.645971527774</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1629,7 +1789,7 @@
         <v>43134.645983043978</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1648,7 +1808,7 @@
         <v>43134.645994560182</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1667,7 +1827,7 @@
         <v>43134.646006076386</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1686,7 +1846,7 @@
         <v>43134.646017592589</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A131" si="2">A67+1</f>
         <v>67</v>
@@ -1705,7 +1865,7 @@
         <v>43134.646029108793</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -1724,7 +1884,7 @@
         <v>43134.646040624997</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -1743,7 +1903,7 @@
         <v>43134.646052141201</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -1762,7 +1922,7 @@
         <v>43134.646063657405</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -1781,7 +1941,7 @@
         <v>43134.646075173609</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -1800,7 +1960,7 @@
         <v>43134.646086689812</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -1819,7 +1979,7 @@
         <v>43134.646098206016</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -1838,7 +1998,7 @@
         <v>43134.64610972222</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -1857,7 +2017,7 @@
         <v>43134.646121238424</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -1876,7 +2036,7 @@
         <v>43134.646132754628</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -1895,7 +2055,7 @@
         <v>43134.646144270831</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -1914,7 +2074,7 @@
         <v>43134.646155787035</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -1932,7 +2092,7 @@
         <v>43134.646167303239</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -1950,7 +2110,7 @@
         <v>43134.646178819443</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -1968,7 +2128,7 @@
         <v>43134.646190335647</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -1987,7 +2147,7 @@
         <v>43134.64620185185</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -2006,7 +2166,7 @@
         <v>43134.646213368054</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -2025,7 +2185,7 @@
         <v>43134.646224884258</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -2044,7 +2204,7 @@
         <v>43134.646236400462</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -2063,7 +2223,7 @@
         <v>43134.646247916666</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -2082,7 +2242,7 @@
         <v>43134.64625943287</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -2101,7 +2261,7 @@
         <v>43134.646270949073</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -2120,7 +2280,7 @@
         <v>43134.646282465277</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -2139,7 +2299,7 @@
         <v>43134.646293981481</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -2158,7 +2318,7 @@
         <v>43134.646305497685</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -2177,7 +2337,7 @@
         <v>43134.646317013889</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -2195,7 +2355,7 @@
         <v>43134.646328530092</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -2213,7 +2373,7 @@
         <v>43134.646340046296</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -2231,7 +2391,7 @@
         <v>43134.6463515625</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -2249,7 +2409,7 @@
         <v>43134.646363078704</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -2267,7 +2427,7 @@
         <v>43134.646374594908</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -2285,7 +2445,7 @@
         <v>43134.646386111111</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -2304,7 +2464,7 @@
         <v>43134.646397627315</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -2313,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" ref="C101:D123" si="4">C100+1</f>
+        <f t="shared" ref="C101:C123" si="4">C100+1</f>
         <v>22</v>
       </c>
       <c r="D101" s="1">
@@ -2323,7 +2483,7 @@
         <v>43134.646409143519</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -2342,7 +2502,7 @@
         <v>43134.646420659723</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -2361,7 +2521,7 @@
         <v>43134.646432175927</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -2380,7 +2540,7 @@
         <v>43134.646443692131</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -2399,7 +2559,7 @@
         <v>43134.646455208334</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -2418,7 +2578,7 @@
         <v>43134.646466724538</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -2437,7 +2597,7 @@
         <v>43134.646478240742</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -2456,7 +2616,7 @@
         <v>43134.646489756946</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -2475,7 +2635,7 @@
         <v>43134.64650127315</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -2494,7 +2654,7 @@
         <v>43134.646512789353</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -2513,7 +2673,7 @@
         <v>43134.646524305557</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -2532,7 +2692,7 @@
         <v>43134.646535821761</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -2551,7 +2711,7 @@
         <v>43134.646547337965</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -2570,7 +2730,7 @@
         <v>43134.646558854169</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -2589,7 +2749,7 @@
         <v>43134.646570370373</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -2608,7 +2768,7 @@
         <v>43134.646581886576</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -2627,7 +2787,7 @@
         <v>43134.64659340278</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -2646,7 +2806,7 @@
         <v>43134.646604918984</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -2665,7 +2825,7 @@
         <v>43134.646616435188</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -2684,7 +2844,7 @@
         <v>43134.646627951392</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -2703,7 +2863,7 @@
         <v>43134.646639467595</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -2722,7 +2882,7 @@
         <v>43134.646650983799</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -2741,7 +2901,7 @@
         <v>43134.646662500003</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -2759,7 +2919,7 @@
         <v>43135.694444444445</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -2778,7 +2938,7 @@
         <v>43135.694456018522</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -2797,7 +2957,7 @@
         <v>43135.694467592592</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -2816,7 +2976,7 @@
         <v>43135.694479166668</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -2835,7 +2995,7 @@
         <v>43135.694490740738</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -2854,7 +3014,7 @@
         <v>43135.694502314815</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -2873,7 +3033,7 @@
         <v>43135.694513888891</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -2892,7 +3052,7 @@
         <v>43135.694525462961</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ref="A132:A163" si="6">A131+1</f>
         <v>131</v>
@@ -2911,7 +3071,7 @@
         <v>43135.694537037038</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" si="6"/>
         <v>132</v>
@@ -2930,7 +3090,7 @@
         <v>43135.694548611114</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" si="6"/>
         <v>133</v>
@@ -2949,7 +3109,7 @@
         <v>43135.694560185184</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" si="6"/>
         <v>134</v>
@@ -2968,7 +3128,7 @@
         <v>43135.694571759261</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" si="6"/>
         <v>135</v>
@@ -2987,7 +3147,7 @@
         <v>43135.69458333333</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" si="6"/>
         <v>136</v>
@@ -3006,7 +3166,7 @@
         <v>43135.694594907407</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" si="6"/>
         <v>137</v>
@@ -3025,7 +3185,7 @@
         <v>43135.694606481484</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" si="6"/>
         <v>138</v>
@@ -3044,7 +3204,7 @@
         <v>43135.694618055553</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" si="6"/>
         <v>139</v>
@@ -3063,7 +3223,7 @@
         <v>43135.69462962963</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -3082,7 +3242,7 @@
         <v>43135.694641203707</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" si="6"/>
         <v>141</v>
@@ -3101,7 +3261,7 @@
         <v>43135.694652777776</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" si="6"/>
         <v>142</v>
@@ -3120,7 +3280,7 @@
         <v>43135.694664351853</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" si="6"/>
         <v>143</v>
@@ -3139,7 +3299,7 @@
         <v>43135.694675925923</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" si="6"/>
         <v>144</v>
@@ -3157,7 +3317,7 @@
         <v>43135.694687499999</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" si="6"/>
         <v>145</v>
@@ -3176,7 +3336,7 @@
         <v>43135.694699074076</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" si="6"/>
         <v>146</v>
@@ -3195,7 +3355,7 @@
         <v>43135.694710648146</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" si="6"/>
         <v>147</v>
@@ -3214,7 +3374,7 @@
         <v>43135.694722222222</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" si="6"/>
         <v>148</v>
@@ -3233,7 +3393,7 @@
         <v>43135.694733796299</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" si="6"/>
         <v>149</v>
@@ -3252,7 +3412,7 @@
         <v>43135.694745370369</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -3271,7 +3431,7 @@
         <v>43135.694756944446</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" si="6"/>
         <v>151</v>
@@ -3290,7 +3450,7 @@
         <v>43135.694768518515</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" si="6"/>
         <v>152</v>
@@ -3309,7 +3469,7 @@
         <v>43135.694780092592</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" si="6"/>
         <v>153</v>
@@ -3328,7 +3488,7 @@
         <v>43135.694791666669</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" si="6"/>
         <v>154</v>
@@ -3347,7 +3507,7 @@
         <v>43135.694803240738</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" si="6"/>
         <v>155</v>
@@ -3366,7 +3526,7 @@
         <v>43135.694814814815</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" si="6"/>
         <v>156</v>
@@ -3385,7 +3545,7 @@
         <v>43135.694826388892</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" si="6"/>
         <v>157</v>
@@ -3404,7 +3564,7 @@
         <v>43135.694837962961</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" si="6"/>
         <v>158</v>
@@ -3423,7 +3583,7 @@
         <v>43135.694849537038</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" si="6"/>
         <v>159</v>
@@ -3442,7 +3602,7 @@
         <v>43135.694861111115</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" si="6"/>
         <v>160</v>
@@ -3461,7 +3621,7 @@
         <v>43135.694872685184</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" si="6"/>
         <v>161</v>
@@ -3480,7 +3640,7 @@
         <v>43135.694884259261</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" si="6"/>
         <v>162</v>

--- a/MSG/ttp.xlsx
+++ b/MSG/ttp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\git\repository\MSG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\Desktop\Zadatak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD1948A-4EB0-4EE5-A841-ED85C56E4EDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293FD12D-8445-4EC2-8ED5-9B0529577CD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2964" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="12">
   <si>
     <t>TRIP_ID</t>
   </si>
@@ -67,27 +67,6 @@
   </si>
   <si>
     <t>TS</t>
-  </si>
-  <si>
-    <t>test_driver2</t>
-  </si>
-  <si>
-    <t>trip04</t>
-  </si>
-  <si>
-    <t>trip05</t>
-  </si>
-  <si>
-    <t>trip06</t>
-  </si>
-  <si>
-    <t>trip07</t>
-  </si>
-  <si>
-    <t>trip08</t>
-  </si>
-  <si>
-    <t>trip09</t>
   </si>
 </sst>
 </file>
@@ -416,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,131 +464,11 @@
         <v>43135.694895833331</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43135.694444444445</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43135.694895833331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43135.694444444445</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43135.694895833331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43135.694444444445</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43135.694895833331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43135.694444444445</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43135.694895833331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>43135.694444444445</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43135.694895833331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>43135.694444444445</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43135.694895833331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>43135.694444444445</v>
-      </c>
-      <c r="D11" s="2">
-        <v>43135.694895833331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>43135.694444444445</v>
-      </c>
-      <c r="D12" s="2">
-        <v>43135.694895833331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>43135.694444444445</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43135.694895833331</v>
-      </c>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -622,7 +481,7 @@
   <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MSG/ttp.xlsx
+++ b/MSG/ttp.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\Desktop\Zadatak\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293FD12D-8445-4EC2-8ED5-9B0529577CD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{94F6F2A2-00BB-4B55-AE35-D33440F39BB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17328" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <oleSize ref="A157:M166"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="13">
   <si>
     <t>TRIP_ID</t>
   </si>
@@ -67,6 +63,9 @@
   </si>
   <si>
     <t>TS</t>
+  </si>
+  <si>
+    <t>test_driver2</t>
   </si>
 </sst>
 </file>
@@ -397,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>43134.645833333336</v>
@@ -455,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>43135.694444444445</v>
@@ -480,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>

--- a/MSG/ttp.xlsx
+++ b/MSG/ttp.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{94F6F2A2-00BB-4B55-AE35-D33440F39BB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9DFA27A9-86B0-49C4-8140-C8EABFBACEB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17328" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17424" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <oleSize ref="A157:M166"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A46:L56"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="12">
   <si>
     <t>TRIP_ID</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>TS</t>
-  </si>
-  <si>
-    <t>test_driver2</t>
   </si>
 </sst>
 </file>
@@ -396,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>43134.645833333336</v>
@@ -454,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>43135.694444444445</v>
@@ -479,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +521,6 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -542,7 +538,6 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -560,7 +555,6 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -578,7 +572,6 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -596,7 +589,6 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -614,7 +606,6 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -632,7 +623,6 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -650,7 +640,6 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -668,7 +657,6 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -686,7 +674,6 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -704,7 +691,6 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -722,7 +708,6 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -740,7 +725,6 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -758,7 +742,6 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -776,7 +759,6 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -794,7 +776,6 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -812,7 +793,6 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -830,7 +810,6 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -848,7 +827,6 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -866,7 +844,6 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -884,7 +861,6 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -902,7 +878,6 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -920,7 +895,6 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -938,7 +912,6 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -956,7 +929,6 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -974,7 +946,6 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -992,7 +963,6 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1010,7 +980,6 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1028,7 +997,6 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1046,7 +1014,6 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1064,7 +1031,6 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1082,7 +1048,6 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1100,7 +1065,6 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1118,7 +1082,6 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1136,7 +1099,6 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1154,7 +1116,6 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1172,7 +1133,6 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1190,7 +1150,6 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1208,7 +1167,6 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1226,7 +1184,6 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1244,7 +1201,6 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1262,7 +1218,6 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1280,7 +1235,6 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1298,7 +1252,6 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1316,7 +1269,6 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1334,7 +1286,6 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1352,7 +1303,6 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1370,7 +1320,6 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1388,7 +1337,6 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -1406,7 +1354,6 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1424,7 +1371,6 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1442,7 +1388,6 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1460,7 +1405,6 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1478,14 +1422,12 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <f>C55-1</f>
         <v>39</v>
       </c>
       <c r="D56" s="1">
@@ -1497,14 +1439,12 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" ref="C57:C79" si="1">C56-1</f>
         <v>38</v>
       </c>
       <c r="D57" s="1">
@@ -1516,14 +1456,12 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D58" s="1">
@@ -1535,14 +1473,12 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D59" s="1">
@@ -1554,14 +1490,12 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D60" s="1">
@@ -1573,14 +1507,12 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D61" s="1">
@@ -1592,14 +1524,12 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D62" s="1">
@@ -1611,14 +1541,12 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D63" s="1">
@@ -1630,14 +1558,12 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D64" s="1">
@@ -1649,14 +1575,12 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D65" s="1">
@@ -1668,14 +1592,12 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D66" s="1">
@@ -1687,14 +1609,12 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D67" s="1">
@@ -1706,14 +1626,12 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <f t="shared" ref="A68:A131" si="2">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D68" s="1">
@@ -1725,14 +1643,12 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D69" s="1">
@@ -1744,14 +1660,12 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D70" s="1">
@@ -1763,14 +1677,12 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D71" s="1">
@@ -1782,14 +1694,12 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="D72" s="1">
@@ -1801,14 +1711,12 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D73" s="1">
@@ -1820,14 +1728,12 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D74" s="1">
@@ -1839,14 +1745,12 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D75" s="1">
@@ -1858,14 +1762,12 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D76" s="1">
@@ -1877,14 +1779,12 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D77" s="1">
@@ -1896,14 +1796,12 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D78" s="1">
@@ -1915,14 +1813,12 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D79" s="1">
@@ -1934,7 +1830,6 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -1952,7 +1847,6 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -1970,7 +1864,6 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -1988,7 +1881,6 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -1998,7 +1890,6 @@
         <v>14</v>
       </c>
       <c r="D83">
-        <f>D82+1</f>
         <v>4</v>
       </c>
       <c r="E83" s="2">
@@ -2007,7 +1898,6 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2017,7 +1907,6 @@
         <v>14</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" ref="D84:D93" si="3">D83+1</f>
         <v>5</v>
       </c>
       <c r="E84" s="2">
@@ -2026,7 +1915,6 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -2036,7 +1924,6 @@
         <v>14</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E85" s="2">
@@ -2045,7 +1932,6 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -2055,7 +1941,6 @@
         <v>14</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E86" s="2">
@@ -2064,7 +1949,6 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2074,7 +1958,6 @@
         <v>14</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E87" s="2">
@@ -2083,7 +1966,6 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -2093,7 +1975,6 @@
         <v>14</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E88" s="2">
@@ -2102,7 +1983,6 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2112,7 +1992,6 @@
         <v>14</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E89" s="2">
@@ -2121,7 +2000,6 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -2131,7 +2009,6 @@
         <v>14</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E90" s="2">
@@ -2140,7 +2017,6 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -2150,7 +2026,6 @@
         <v>14</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E91" s="2">
@@ -2159,7 +2034,6 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -2169,7 +2043,6 @@
         <v>14</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E92" s="2">
@@ -2178,7 +2051,6 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -2188,7 +2060,6 @@
         <v>14</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E93" s="2">
@@ -2197,7 +2068,6 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -2215,7 +2085,6 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -2233,7 +2102,6 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -2251,7 +2119,6 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -2269,7 +2136,6 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -2287,7 +2153,6 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -2305,14 +2170,12 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C100">
-        <f>C99+1</f>
         <v>21</v>
       </c>
       <c r="D100" s="1">
@@ -2324,14 +2187,12 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" ref="C101:C123" si="4">C100+1</f>
         <v>22</v>
       </c>
       <c r="D101" s="1">
@@ -2343,14 +2204,12 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="D102" s="1">
@@ -2362,14 +2221,12 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D103" s="1">
@@ -2381,14 +2238,12 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="D104" s="1">
@@ -2400,14 +2255,12 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="D105" s="1">
@@ -2419,14 +2272,12 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="D106" s="1">
@@ -2438,14 +2289,12 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="D107" s="1">
@@ -2457,14 +2306,12 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="D108" s="1">
@@ -2476,14 +2323,12 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="D109" s="1">
@@ -2495,14 +2340,12 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="D110" s="1">
@@ -2514,14 +2357,12 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D111" s="1">
@@ -2533,14 +2374,12 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="D112" s="1">
@@ -2552,14 +2391,12 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="D113" s="1">
@@ -2571,14 +2408,12 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D114" s="1">
@@ -2590,14 +2425,12 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D115" s="1">
@@ -2609,14 +2442,12 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D116" s="1">
@@ -2628,14 +2459,12 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="D117" s="1">
@@ -2647,14 +2476,12 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="D118" s="1">
@@ -2666,14 +2493,12 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="D119" s="1">
@@ -2685,14 +2510,12 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="D120" s="1">
@@ -2704,14 +2527,12 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="D121" s="1">
@@ -2723,14 +2544,12 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="D122" s="1">
@@ -2742,14 +2561,12 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="D123" s="1">
@@ -2761,7 +2578,6 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -2779,7 +2595,6 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -2789,7 +2604,6 @@
         <v>24</v>
       </c>
       <c r="D125">
-        <f>D124+1</f>
         <v>1</v>
       </c>
       <c r="E125" s="2">
@@ -2798,7 +2612,6 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -2808,7 +2621,6 @@
         <v>24</v>
       </c>
       <c r="D126" s="1">
-        <f t="shared" ref="D126:D144" si="5">D125+1</f>
         <v>2</v>
       </c>
       <c r="E126" s="2">
@@ -2817,7 +2629,6 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -2827,7 +2638,6 @@
         <v>24</v>
       </c>
       <c r="D127" s="1">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="E127" s="2">
@@ -2836,7 +2646,6 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -2846,7 +2655,6 @@
         <v>24</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E128" s="2">
@@ -2855,7 +2663,6 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -2865,7 +2672,6 @@
         <v>24</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E129" s="2">
@@ -2874,7 +2680,6 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -2884,7 +2689,6 @@
         <v>24</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E130" s="2">
@@ -2893,7 +2697,6 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -2903,7 +2706,6 @@
         <v>24</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="E131" s="2">
@@ -2912,7 +2714,6 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <f t="shared" ref="A132:A163" si="6">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -2922,7 +2723,6 @@
         <v>24</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="E132" s="2">
@@ -2931,7 +2731,6 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -2941,7 +2740,6 @@
         <v>24</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="E133" s="2">
@@ -2950,7 +2748,6 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -2960,7 +2757,6 @@
         <v>24</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E134" s="2">
@@ -2969,7 +2765,6 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -2979,7 +2774,6 @@
         <v>24</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="E135" s="2">
@@ -2988,7 +2782,6 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -2998,7 +2791,6 @@
         <v>24</v>
       </c>
       <c r="D136" s="1">
-        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E136" s="2">
@@ -3007,7 +2799,6 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <f t="shared" si="6"/>
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -3017,7 +2808,6 @@
         <v>24</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E137" s="2">
@@ -3026,7 +2816,6 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <f t="shared" si="6"/>
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -3036,7 +2825,6 @@
         <v>24</v>
       </c>
       <c r="D138" s="1">
-        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E138" s="2">
@@ -3045,7 +2833,6 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -3055,7 +2842,6 @@
         <v>24</v>
       </c>
       <c r="D139" s="1">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="E139" s="2">
@@ -3064,7 +2850,6 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -3074,7 +2859,6 @@
         <v>24</v>
       </c>
       <c r="D140" s="1">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E140" s="2">
@@ -3083,7 +2867,6 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -3093,7 +2876,6 @@
         <v>24</v>
       </c>
       <c r="D141" s="1">
-        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E141" s="2">
@@ -3102,7 +2884,6 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -3112,7 +2893,6 @@
         <v>24</v>
       </c>
       <c r="D142" s="1">
-        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="E142" s="2">
@@ -3121,7 +2901,6 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -3131,7 +2910,6 @@
         <v>24</v>
       </c>
       <c r="D143" s="1">
-        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="E143" s="2">
@@ -3140,7 +2918,6 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -3150,7 +2927,6 @@
         <v>24</v>
       </c>
       <c r="D144" s="1">
-        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E144" s="2">
@@ -3159,7 +2935,6 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -3177,14 +2952,12 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C146">
-        <f>C145-1</f>
         <v>22</v>
       </c>
       <c r="D146" s="1">
@@ -3196,14 +2969,12 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" ref="C147:C163" si="7">C146-1</f>
         <v>21</v>
       </c>
       <c r="D147" s="1">
@@ -3215,14 +2986,12 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="D148" s="1">
@@ -3234,14 +3003,12 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <f t="shared" si="6"/>
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="D149" s="1">
@@ -3253,14 +3020,12 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <f t="shared" si="6"/>
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D150" s="1">
@@ -3272,14 +3037,12 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="D151" s="1">
@@ -3291,14 +3054,12 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="D152" s="1">
@@ -3310,14 +3071,12 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <f t="shared" si="6"/>
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="D153" s="1">
@@ -3329,14 +3088,12 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="D154" s="1">
@@ -3348,14 +3105,12 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C155" s="1">
-        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="D155" s="1">
@@ -3367,14 +3122,12 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C156" s="1">
-        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D156" s="1">
@@ -3386,14 +3139,12 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C157" s="1">
-        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D157" s="1">
@@ -3405,14 +3156,12 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D158" s="1">
@@ -3424,14 +3173,12 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C159" s="1">
-        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D159" s="1">
@@ -3443,14 +3190,12 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C160" s="1">
-        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D160" s="1">
@@ -3462,14 +3207,12 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C161" s="1">
-        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D161" s="1">
@@ -3481,14 +3224,12 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="1">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D162" s="1">
@@ -3500,14 +3241,12 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="1">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D163" s="1">
